--- a/machine_learning/yield_prediction/yield_data.xlsx
+++ b/machine_learning/yield_prediction/yield_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git_repos\farm_mate\machine_learning\yield_prediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{342E559E-C84F-4610-98D5-74B8813831F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D83B1577-36D1-46E5-930C-0153A8A44EF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{01565ADD-067E-4A44-AE65-548B802896A9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{01565ADD-067E-4A44-AE65-548B802896A9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -539,7 +539,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5FEE4EF-83B2-4ED2-BDF6-CA33FE4A0259}">
   <dimension ref="A1:F4349"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4337" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4322" workbookViewId="0">
       <selection activeCell="D4349" sqref="D4349"/>
     </sheetView>
   </sheetViews>
